--- a/biology/Médecine/Irving_Gottesman/Irving_Gottesman.xlsx
+++ b/biology/Médecine/Irving_Gottesman/Irving_Gottesman.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Irving Isadore Gottesman  (29 décembre 1930 à Cleveland, Ohio – 29 juin 2016 à Edina (Minnesota)) est un professeur d'université et psychologue américain.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Il a obtenu son doctorat à l'université du Minnesota, où il est ensuite professeur. Il consacre l'essentiel de sa carrière à l'étude génétique de la schizophrénie. 
 Il est l'auteur de 17 ouvrages et de nombreuses publications sur la schizophrénie et la génétique comportementale. Il a créé le premier programme d'études sur la génétique comportementale aux États-unis.
@@ -543,7 +557,9 @@
           <t>Distinctions</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prix Hofheimer de la recherche (Association américaine de psychiatrie)
 APA Distinguished Scientific Contributions
@@ -578,6 +594,8 @@
         </is>
       </c>
       <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
